--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -451,687 +451,927 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>007468</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>中信建投策略精选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>82.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>007469</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>中信建投策略精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>82.74</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>90.88</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>5.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>571002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺德主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000603</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000845</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>84.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000404</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达新兴成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>110002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达策略成长混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004448</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时汇智回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>81.29</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1402,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512100</t>
+          <t>005609</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证1000ETF</t>
+          <t>富国军工主题混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>115.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.0866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>000404</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>易方达新兴成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>46.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>19.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>19.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>163409</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>兴全绿色投资混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>31.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>000603</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>易方达创新驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007872</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金信稳健策略灵活配置混合</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.90</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005609</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国军工主题混合A</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7.90</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6296</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>110002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>易方达策略成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>81.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4780</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009347</t>
+          <t>001150</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合A</t>
+          <t>融通互联网传媒灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009348</t>
+          <t>001128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合C</t>
+          <t>宝盈新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4448</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009350</t>
+          <t>112002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>新疆前海联合添泽债券C</t>
+          <t>易方达策略成长二号混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000219</t>
+          <t>009347</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时裕益灵活配置混合</t>
+          <t>中融价值成长6个月持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>000219</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>博时裕益灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>001749</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>招商中国机遇股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>001037</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>国投瑞银锐意改革灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000603</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达创新驱动灵活配置混合</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000679</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合A</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002416</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合C</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>009537</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>太平行业优选股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000845</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001037</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国投瑞银锐意改革灵活配置混合</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001128</t>
+          <t>007872</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>宝盈新兴产业灵活配置混合</t>
+          <t>金信稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001150</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>融通互联网传媒灵活配置混合</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>009348</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>中融价值成长6个月持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>000845</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>国投瑞银信息消费灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>009538</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>太平行业优选股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>81.48</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>512100</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>南方中证1000ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001749</t>
+          <t>571002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>招商中国机遇股票</t>
+          <t>诺德主题灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>000679</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>招商丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2078,25 +2648,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>571002</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>诺德主题灵活配置混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>78.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>001877</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
+          <t>宝盈国家安全战略沪港深股票</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2172,15 +2772,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>93.42</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>46.37</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>002256</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>金信行业优选灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>002416</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>招商丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>2</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>96.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009537</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太平行业优选股票A</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2330,26 +2990,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009538</t>
+          <t>009350</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>太平行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
+          <t>新疆前海联合添泽债券C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2998,7 +2999,6 @@
           <t>新疆前海联合添泽债券C</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>89.39</t>
@@ -3014,6 +3014,1428 @@
       </c>
       <c r="H43" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4441,4 +4442,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1762</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7940</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5940</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5196</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2934</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>180001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华优势企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159846</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中证1000交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5980,4 +5981,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5989,7 +5990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6000,17 +6001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6020,14 +6041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.75</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9589</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6036,14 +6079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.62</v>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6052,14 +6117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.13</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6068,13 +6155,2773 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国周期优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7440</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6943</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6857</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6813</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4313</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000471</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国城镇发展股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8820,7 +8821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8831,17 +8832,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8851,14 +8872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.83</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -8867,14 +8910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.75</v>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8883,14 +8948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.62</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8899,14 +8986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.13</v>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8915,13 +9024,1117 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10017,7 +10018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10028,17 +10029,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10048,14 +10069,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.26</v>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10064,14 +10107,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.83</v>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -10080,14 +10145,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.75</v>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4581</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -10096,14 +10183,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.62</v>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8284</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -10112,14 +10221,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>42</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23.13</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10128,13 +10259,1093 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2922</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.82</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>15.47</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>15.26</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>33.83</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>21.75</v>
+        <v>33.83</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>24.62</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>23.13</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.82</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005609</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国军工主题混合A</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>80.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6312</t>
+          <t>0.4474</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000404</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达新兴成长灵活配置混合</t>
+          <t>富国国家安全主题混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.43</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2286</t>
+          <t>0.2056</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达价值精选混合</t>
+          <t>建信中国制造2025股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42.76</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.05</t>
+          <t>86.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4581</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>富国产业升级混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8284</t>
+          <t>0.0762</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>377020</t>
+          <t>014380</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根内需动力混合</t>
+          <t>建信中国制造2025股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.82</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.02</t>
+          <t>86.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7901</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>华商改革创新股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.32</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>79.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7718</t>
+          <t>0.0453</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>009537</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>太平行业优选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5450</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001076</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达改革红利混合</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4014</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>016052</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>华商改革创新股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>79.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2922</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>009538</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>太平行业优选股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2435</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014380</t>
+          <t>013046</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票C</t>
+          <t>富国产业升级混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.86</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1796</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1074,717 +1091,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010114</t>
+          <t>013044</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝新兴成长混合</t>
+          <t>富国国家安全主题混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>90.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1794</t>
-        </is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>530011</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信内生动力混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013323</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保盛泽三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1185</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011506</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1146</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004183</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国产业升级混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0996</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0953</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001276</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>73.58</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009537</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>太平行业优选股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005876</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010642</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银汇理秀山一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011507</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010690</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009538</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>太平行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010691</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>013324</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保盛泽三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>013046</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013044</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1860,22 +1193,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>80.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.7923</t>
+          <t>6.6312</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1898,26 +1231,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.67</t>
+          <t>46.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9142</t>
+          <t>2.2286</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1936,26 +1269,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.58</t>
+          <t>42.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5676</t>
+          <t>1.4581</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1964,36 +1297,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.8284</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2002,36 +1335,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>377020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>上投摩根内需动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5069</t>
+          <t>0.7901</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2040,32 +1373,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>82.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5025</t>
+          <t>0.7718</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2078,36 +1411,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4809</t>
+          <t>0.5450</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2116,36 +1449,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>001076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>易方达改革红利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>62.57</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3878</t>
+          <t>0.4014</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2154,32 +1487,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3812</t>
+          <t>0.2922</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2202,26 +1535,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3673</t>
+          <t>0.2435</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2230,36 +1563,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>014380</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>建信中国制造2025股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2472</t>
+          <t>0.1796</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2268,36 +1601,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>550009</t>
+          <t>010114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中小盘混合</t>
+          <t>华宝新兴成长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.68</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2176</t>
+          <t>0.1794</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2306,36 +1639,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>530011</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>建信内生动力混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>77.62</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1672</t>
+          <t>0.1338</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2344,36 +1677,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010114</t>
+          <t>013323</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝新兴成长混合</t>
+          <t>国寿安保盛泽三年持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.47</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1548</t>
+          <t>0.1185</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2392,26 +1725,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.1146</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2420,36 +1753,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0996</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2458,32 +1791,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001105</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信达澳银转型创新股票</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0953</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2496,36 +1829,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>73.58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.0653</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2534,32 +1867,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>009537</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>太平行业优选股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2572,36 +1905,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0461</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2610,36 +1943,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001103</t>
+          <t>010642</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
+          <t>农银汇理秀山一年持有期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37.48</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2648,36 +1981,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>011507</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>建信高端装备股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2686,36 +2019,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011507</t>
+          <t>005877</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>建信高端装备股票型证券投资基金C</t>
+          <t>易方达鑫转增利混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2724,36 +2057,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>010690</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>万家互联互通核心资产量化策略混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2772,26 +2105,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2800,32 +2133,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005877</t>
+          <t>009538</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合C</t>
+          <t>太平行业优选股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2838,36 +2171,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>571002</t>
+          <t>010691</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>诺德主题灵活配置混合</t>
+          <t>万家互联互通核心资产量化策略混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.03</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2876,36 +2209,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>013324</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>国寿安保盛泽三年持有期混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2914,36 +2247,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003843</t>
+          <t>013046</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合C</t>
+          <t>富国产业升级混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2952,36 +2285,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>013044</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>富国国家安全主题混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2990,6 +2321,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5819,7 +6346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7357,7 +7884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8779,7 +9306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10424,7 +10951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002402-和而泰.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>15.47</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>15.26</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>33.83</v>
+        <v>15.26</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>21.75</v>
+        <v>33.83</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>24.62</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>23.13</v>
+        <v>24.62</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,960 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1564,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1321</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1118,1200 +2955,6 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>80.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.6312</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000404</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达新兴成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>46.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2286</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达价值精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>83.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4581</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8284</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>377020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根内需动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7901</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000986</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>太平灵活配置混合型发起式</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7718</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009693</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国积极成长一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5450</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001076</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达改革红利混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4014</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001268</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2922</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001825</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2435</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>014380</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1796</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1794</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>530011</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信内生动力混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>77.62</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013323</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保盛泽三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1185</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011506</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1146</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004183</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国产业升级混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0996</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0953</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001276</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>73.58</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009537</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>太平行业优选股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005876</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010642</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>农银汇理秀山一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011507</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信高端装备股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.32</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>28.42</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010690</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009538</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>太平行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010691</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>万家互联互通核心资产量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>013324</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保盛泽三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>013046</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国产业升级混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.07</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013044</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>富国国家安全主题混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2387,22 +3030,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>80.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.7923</t>
+          <t>6.6312</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2425,26 +3068,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.67</t>
+          <t>46.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.9142</t>
+          <t>2.2286</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2463,26 +3106,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>41.58</t>
+          <t>42.76</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>83.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5676</t>
+          <t>1.4581</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2491,36 +3134,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000986</t>
+          <t>011113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>太平灵活配置混合型发起式</t>
+          <t>富国军工主题混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7615</t>
+          <t>0.8284</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2529,36 +3172,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001877</t>
+          <t>377020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈国家安全战略沪港深股票</t>
+          <t>上投摩根内需动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>25.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5069</t>
+          <t>0.7901</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2567,32 +3210,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>000986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>太平灵活配置混合型发起式</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.82</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>82.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5025</t>
+          <t>0.7718</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2605,36 +3248,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011113</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国军工主题混合C</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.82</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4809</t>
+          <t>0.5450</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2643,36 +3286,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>001076</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>易方达改革红利混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>62.57</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3878</t>
+          <t>0.4014</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2681,32 +3324,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>001268</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>富国国家安全主题混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3812</t>
+          <t>0.2922</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2729,26 +3372,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3673</t>
+          <t>0.2435</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2757,36 +3400,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001268</t>
+          <t>014380</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国国家安全主题混合</t>
+          <t>建信中国制造2025股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>83.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2472</t>
+          <t>0.1796</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2795,36 +3438,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>550009</t>
+          <t>010114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信诚中小盘混合</t>
+          <t>华宝新兴成长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.68</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2176</t>
+          <t>0.1794</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2833,36 +3476,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>530011</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>建信内生动力混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>77.62</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1672</t>
+          <t>0.1338</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2871,36 +3514,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010114</t>
+          <t>013323</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝新兴成长混合</t>
+          <t>国寿安保盛泽三年持有期混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.47</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1548</t>
+          <t>0.1185</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2919,26 +3562,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.1146</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2947,36 +3590,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>004183</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>富国产业升级混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0913</t>
+          <t>0.0996</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2985,32 +3628,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001105</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信达澳银转型创新股票</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>92.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0889</t>
+          <t>0.0953</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3023,36 +3666,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004183</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国产业升级混合</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>73.58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.0653</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3061,32 +3704,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005876</t>
+          <t>009537</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合A</t>
+          <t>太平行业优选股票A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -3099,36 +3742,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>005876</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>易方达鑫转增利混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0461</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -3137,36 +3780,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001103</t>
+          <t>010642</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
+          <t>农银汇理秀山一年持有期混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>37.48</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0615</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -3175,36 +3818,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003842</t>
+          <t>011507</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合A</t>
+          <t>建信高端装备股票型证券投资基金C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3213,36 +3856,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011507</t>
+          <t>005877</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>建信高端装备股票型证券投资基金C</t>
+          <t>易方达鑫转增利混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -3251,36 +3894,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>010690</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>万家互联互通核心资产量化策略混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0350</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -3299,26 +3942,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3327,32 +3970,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005877</t>
+          <t>009538</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>易方达鑫转增利混合C</t>
+          <t>太平行业优选股票C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0271</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3365,36 +4008,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>571002</t>
+          <t>010691</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>诺德主题灵活配置混合</t>
+          <t>万家互联互通核心资产量化策略混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>77.03</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -3403,36 +4046,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>013324</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>国寿安保盛泽三年持有期混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3441,36 +4084,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003843</t>
+          <t>013046</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中邮景泰灵活配置混合C</t>
+          <t>富国产业升级混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>33.95</t>
+          <t>90.07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -3479,36 +4122,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>013044</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>富国国家安全主题混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3517,6 +4158,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3878</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6346,7 +8183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7884,7 +9721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9306,7 +11143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10949,934 +12786,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000404</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达新兴成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>78.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.0102</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005609</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国军工主题混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.8184</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000603</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达创新驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7739</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009347</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6480</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达策略成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5723</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>112002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达策略成长二号混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4988</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000219</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时裕益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3456</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004448</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时汇智回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3453</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011113</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国军工主题混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3443</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0920</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0812</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008347</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0692</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005265</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009348</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中融价值成长6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000845</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银信息消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>84.19</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001877</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宝盈国家安全战略沪港深股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>571002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺德主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>82.74</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005266</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时厚泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>